--- a/data_tagihan.xlsx
+++ b/data_tagihan.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Laporan Bulanan" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Perhitungan Otomatis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Data Cicilan yang Belum Dibayar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data Cicilan yang Sudah Dibayar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,148 +444,537 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Nama BDM</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Bulan</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2000000</v>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2833333</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2000000</v>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2833333</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2000000</v>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2833333</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2000000</v>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2833333</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2000000</v>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2000000</v>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2000000</v>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2000000</v>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2000000</v>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2000000</v>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15555555</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>08772233</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -599,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,23 +999,119 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Nama BDM</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Total Tagihan Tersisa</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>14000000</v>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2833333</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>motor</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2833333</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_tagihan.xlsx
+++ b/data_tagihan.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,91 +483,23 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-12-02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2833333</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-12-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2833333</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
+          <t>Diinput oleh: admin</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>12321321321</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,19 +508,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2833333</v>
+        <v>6000000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>risky</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -600,12 +532,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>12321321321</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,19 +546,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2833333</v>
+        <v>6000000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>risky</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -635,167 +567,25 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-12-25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15555555</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>08772233</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-12-25</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15555555</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>08772233</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-12-25</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15555555</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>08772233</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-12-25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15555555</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>08772233</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
+          <t>Diinput oleh: admin</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -804,10 +594,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>15555555</v>
+        <v>5000000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -816,7 +606,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08772233</t>
+          <t>0888888888</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -828,12 +618,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -842,10 +632,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>15555555</v>
+        <v>5000000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -854,7 +644,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08772233</t>
+          <t>0888888888</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -866,12 +656,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -880,10 +670,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>15555555</v>
+        <v>5000000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -892,7 +682,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08772233</t>
+          <t>0888888888</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -904,12 +694,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -918,10 +708,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>15555555</v>
+        <v>5000000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -930,7 +720,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08772233</t>
+          <t>0888888888</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -942,12 +732,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -956,28 +746,184 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21123231</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21123231</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>9</v>
       </c>
-      <c r="E14" t="n">
-        <v>15555555</v>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E16" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>someone</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>08772233</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Belum Dibayar</t>
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21123231</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>21123231</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -988,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,24 +987,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>mobil</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2833333</v>
+        <v>5000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1079,24 +1025,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>21123231</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>mobil</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2833333</v>
+        <v>5000000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1109,6 +1055,44 @@
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21123231</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mobil</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0888888888</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pembayaran Selesai</t>
         </is>

--- a/data_tagihan.xlsx
+++ b/data_tagihan.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Data Cicilan yang Belum Dibayar" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Data Cicilan yang Sudah Dibayar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Perhitungan Otomatis" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,28 +495,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12321321321</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>risky</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -532,28 +533,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12321321321</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>risky</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -567,37 +568,179 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21321321</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>motor #KT23212</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>082280579913</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21321321</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>motor #KT23212</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>082280579913</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21321321</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>motor #KT23212</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>082280579913</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diinput oleh: admin</t>
+          <t>21321321</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>motor #KT23212</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>082280579913</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21123231</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mobil</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -606,7 +749,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -618,24 +761,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21123231</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mobil</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -644,7 +787,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -656,24 +799,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21123231</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mobil</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -682,7 +825,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -694,24 +837,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21123231</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mobil</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -720,7 +863,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -732,24 +875,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21123231</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mobil</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -758,7 +901,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0888888888</t>
+          <t>082280579913</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -767,161 +910,10 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>21123231</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>21123231</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>21123231</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>21123231</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
+    <row r="15"/>
+    <row r="16"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:H9"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -934,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,115 +979,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21123231</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Pembayaran Selesai</t>
-        </is>
-      </c>
+          <t>Diinput oleh: admin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21123231</t>
+          <t>21321321</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mobil</t>
+          <t>motor #KT23212</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>082280579913</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sisa Bulan</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sisa Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>motor #KT23212</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Pembayaran Selesai</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>21123231</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>mobil</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0888888888</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Pembayaran Selesai</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/data_tagihan.xlsx
+++ b/data_tagihan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Data Cicilan yang Belum Dibayar" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Data Cicilan yang Sudah Dibayar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Perhitungan Otomatis" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Ringkasan Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,438 +484,7 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Diinput oleh: admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Belum Dibayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="15"/>
-    <row r="16"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -926,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,58 +545,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Diinput oleh: admin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21321321</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>someone</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>082280579913</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Pembayaran Selesai</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1039,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,36 +567,18 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Nama BDM</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Sisa Bulan</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Sisa Nominal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>motor #KT23212</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n">
-        <v>2</v>
+          <t>Sisa Tagihan</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_tagihan.xlsx
+++ b/data_tagihan.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data Cicilan yang Belum Dibayar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Data Cicilan yang Sudah Dibayar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Ringkasan Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Data_Cicilan_yang_Belum_Dibayar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data_Cicilan_yang_Sudah_Dibayar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ringkasan_Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,16 +28,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,12 +54,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -125,6 +177,52 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Data_Cicilan_yang_Belum_Dibayar" displayName="Table_Data_Cicilan_yang_Belum_Dibayar" ref="A1:H14" headerRowCount="1">
+  <autoFilter ref="A1:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No Kontrak"/>
+    <tableColumn id="2" name="Hari dan Tanggal"/>
+    <tableColumn id="3" name="Nama BDM"/>
+    <tableColumn id="4" name="Bulan"/>
+    <tableColumn id="5" name="Nominal Cicilan"/>
+    <tableColumn id="6" name="Vendor"/>
+    <tableColumn id="7" name="No HP"/>
+    <tableColumn id="8" name="Status Pembayaran"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Data_Cicilan_yang_Sudah_Dibayar" displayName="Table_Data_Cicilan_yang_Sudah_Dibayar" ref="A1:H5" headerRowCount="1">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No Kontrak"/>
+    <tableColumn id="2" name="Hari dan Tanggal"/>
+    <tableColumn id="3" name="Nama BDM"/>
+    <tableColumn id="4" name="Bulan"/>
+    <tableColumn id="5" name="Nominal Cicilan"/>
+    <tableColumn id="6" name="Vendor"/>
+    <tableColumn id="7" name="No HP"/>
+    <tableColumn id="8" name="Status Pembayaran"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Ringkasan_Data" displayName="Table_Ringkasan_Data" ref="A1:C2" headerRowCount="1">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="No Kontrak"/>
+    <tableColumn id="2" name="Nama BDM"/>
+    <tableColumn id="3" name="Sisa Tagihan"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,8 +520,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -434,58 +539,384 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="29" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="7" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>No Kontrak</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Hari dan Tanggal</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nama BDM</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Bulan</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Nominal Cicilan</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Vendor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>No HP</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Status Pembayaran</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Diinput oleh: Risky</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Belum Dibayar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -495,58 +926,275 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="7" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="8" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="7" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>No Kontrak</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Hari dan Tanggal</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nama BDM</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Bulan</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Nominal Cicilan</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Vendor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>No HP</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Diinput oleh: Risky</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2333333</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pembayaran Selesai</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -556,32 +1204,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="29" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>No Kontrak</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Nama BDM</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Sisa Tagihan</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Motor Honda Vario #KT123456</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16333331</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data_tagihan.xlsx
+++ b/data_tagihan.xlsx
@@ -11,6 +11,18 @@
     <sheet name="Data_Cicilan_yang_Belum_Dibayar" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Data_Cicilan_yang_Sudah_Dibayar" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Ringkasan_Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Data_Cicilan_yang_Belum_Dibayar1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Data_Cicilan_yang_Sudah_Dibayar1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Ringkasan_Data1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Data_Cicilan_yang_Belum_Dibayar2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Data_Cicilan_yang_Sudah_Dibayar2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ringkasan_Data2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Data_Cicilan_yang_Belum_Dibayar3" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Data_Cicilan_yang_Sudah_Dibayar3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Ringkasan_Data3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Data_Cicilan_yang_Belum_Dibayar4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Data_Cicilan_yang_Sudah_Dibayar4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Ringkasan_Data4" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,13 +532,365 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sisa Tagihan</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sisa Tagihan</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sisa Tagihan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -545,7 +909,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -932,7 +1296,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1210,7 +1574,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="29" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1255,4 +1619,284 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sisa Tagihan</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No Kontrak</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hari dan Tanggal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nama BDM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bulan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nominal Cicilan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>No HP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status Pembayaran</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>